--- a/RefDesignator/Interface.xlsx
+++ b/RefDesignator/Interface.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeamboonkai/Desktop/AMD_Project/Input_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeamboonkai/Desktop/AMD_Project/Input_Files/DesignConnectivityChecker_Tool/RefDesignator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF749E-9458-C043-96D7-FB3754519ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95552C-CF1A-A648-85F4-0139848F396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="2520" windowWidth="28600" windowHeight="39060" activeTab="7" xr2:uid="{24DE9B79-8E37-4843-9450-E37A51C8A871}"/>
+    <workbookView xWindow="28000" yWindow="840" windowWidth="28600" windowHeight="39060" activeTab="9" xr2:uid="{24DE9B79-8E37-4843-9450-E37A51C8A871}"/>
   </bookViews>
   <sheets>
     <sheet name="DDR_14L" sheetId="2" r:id="rId1"/>
     <sheet name="DDR_16L" sheetId="3" r:id="rId2"/>
     <sheet name="DDR_18L" sheetId="4" r:id="rId3"/>
-    <sheet name="XGMI_PCIe" sheetId="6" r:id="rId4"/>
-    <sheet name="MISC_LCL" sheetId="9" r:id="rId5"/>
-    <sheet name="MISC_SCL" sheetId="12" r:id="rId6"/>
+    <sheet name="XGMI" sheetId="6" r:id="rId4"/>
+    <sheet name="MISC" sheetId="9" r:id="rId5"/>
+    <sheet name="SATA" sheetId="12" r:id="rId6"/>
     <sheet name="USB" sheetId="10" r:id="rId7"/>
     <sheet name="CLK" sheetId="13" r:id="rId8"/>
     <sheet name="PCIE" sheetId="8" r:id="rId9"/>
@@ -3577,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C446D43-0A10-DA42-ABE3-D370E7BB109B}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6276,7 +6276,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6896,7 +6896,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6997,7 +6997,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7294,8 +7294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7206F2-2997-9147-AF52-93407DFA514A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F93" sqref="E93:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RefDesignator/Interface.xlsx
+++ b/RefDesignator/Interface.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeamboonkai/Desktop/AMD_Project/Input_Files/DesignConnectivityChecker_Tool/RefDesignator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95552C-CF1A-A648-85F4-0139848F396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DAA9A-1A7D-964C-990E-B2FEF14D81BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28000" yWindow="840" windowWidth="28600" windowHeight="39060" activeTab="9" xr2:uid="{24DE9B79-8E37-4843-9450-E37A51C8A871}"/>
+    <workbookView xWindow="21600" yWindow="11600" windowWidth="33600" windowHeight="20500" xr2:uid="{24DE9B79-8E37-4843-9450-E37A51C8A871}"/>
   </bookViews>
   <sheets>
-    <sheet name="DDR_14L" sheetId="2" r:id="rId1"/>
+    <sheet name="MEMORY" sheetId="2" r:id="rId1"/>
     <sheet name="DDR_16L" sheetId="3" r:id="rId2"/>
     <sheet name="DDR_18L" sheetId="4" r:id="rId3"/>
     <sheet name="XGMI" sheetId="6" r:id="rId4"/>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE9A28-C961-0F42-B9CD-6205E2C98901}">
   <dimension ref="A2:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3577,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C446D43-0A10-DA42-ABE3-D370E7BB109B}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
